--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Mettre le titire et Meta discription</t>
   </si>
   <si>
+    <t xml:space="preserve">Inserting h2 instead of img title</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tag H1</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">gtmetrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact page error </t>
   </si>
   <si>
     <t xml:space="preserve">compressor.io</t>
@@ -278,19 +284,20 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6297872340425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.2851063829787"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4212765957447"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.2170212765957"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8468085106383"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6297872340425"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.1446808510638"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.9829787234043"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2127659574468"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0340425531915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1148936170213"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.068085106383"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.9829787234043"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.7106382978723"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.00851063829787"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -342,36 +349,42 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -379,7 +392,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -40,40 +40,163 @@
     <t xml:space="preserve">Référence</t>
   </si>
   <si>
-    <t xml:space="preserve">(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre le titire et Meta discription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserting h2 instead of img title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag H1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode mobile certine eliments se suprime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le taille de image n’est pas leger (841*516)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exécution différée defer -qu’ils doivent être exécutés une fois le HTML complètement chargé,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtmetrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact page error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressor.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inutil commentaires dans le link</t>
+    <t xml:space="preserve">SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N’a pas de titre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenu de balise &lt;titre&gt; va  optimiser référencement du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre obligatoirement ce tittre dans le &lt;head&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajauter le balise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.anthedesign.fr/referencement/balise-title-titre-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site n’a pas de discription </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenu de méta  discription vas aider le référencement de la site  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre obligatoirement ce balise dans le &lt;head&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter le discription avec les mots clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N’a pas de meta robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le google bot ne présent pas dans le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter le balise robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avec index,follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n’a pas de site map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facilite grandement et améliore la qualité du travail des crawlers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre le site map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N’a pas de meta keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key vas aider  google pour trouver le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter le keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO/Accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N’a pas de lang attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google ne poux pas identifier le lange de la site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diclairer une lange pour le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter le lang attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N’a pas de mots cles dans le senction header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mots cles vas aider le référencement de la site  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">metter des mots clés visible avec le logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter le mots clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'black hat ’ mots cles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n’a pas de alt dans les liens a – black hat liens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute alt des balise &lt;a&gt; manque des mot clés et le lien sont vides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lien &lt;a&gt; attribute alt avec les mots clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">répéter les mots clés dans l'attribut alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas mettre les liens vides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suprimer les liens vides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les color sont sombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les text ne sont pas bien visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre les text bien visible are les color bien claire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification de backgrondcolor et color de text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page contact n’a pas bien organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le page n’est pas claire pour le client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organisation de client data est trés important </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification de page contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO/Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contenu image sont lourde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les image sont grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metter les image plus leger possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification de taille de les images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript n’a pas été minifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les temps de telechagement de la site vas augmanter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minifier les dossier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minifier les javascript et css files</t>
   </si>
 </sst>
 </file>
@@ -89,7 +212,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,7 +234,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -120,20 +241,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,6 +321,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -282,22 +404,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.9829787234043"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2127659574468"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0340425531915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1148936170213"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.068085106383"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.9829787234043"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.7106382978723"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.00851063829787"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.9106382978723"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.1914893617021"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.9957446808511"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.6297872340426"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.9106382978723"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.2085106382979"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="12.9489361702128"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -341,58 +462,250 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="4" t="s">
-        <v>17</v>
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+      <c r="D21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
